--- a/data/plot_statistics_wind.xlsx
+++ b/data/plot_statistics_wind.xlsx
@@ -389,16 +389,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.5180652573704719</v>
+        <v>0.522576704621315</v>
       </c>
       <c r="C2">
-        <v>0.01712135480113725</v>
+        <v>0.0001938456792095726</v>
       </c>
       <c r="D2">
-        <v>1.101934742629528</v>
+        <v>1.062089962045352</v>
       </c>
       <c r="E2">
-        <v>-0.004840021819204949</v>
+        <v>0.0005757296251106453</v>
       </c>
     </row>
     <row r="3">
@@ -406,16 +406,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.4756865903735161</v>
+        <v>0.4922490616639455</v>
       </c>
       <c r="C3">
-        <v>0.02333385895967664</v>
+        <v>0.01077800016538375</v>
       </c>
       <c r="D3">
-        <v>1.144313409626484</v>
+        <v>1.092417605002721</v>
       </c>
       <c r="E3">
-        <v>-0.008918449778607432</v>
+        <v>-0.007561430919601916</v>
       </c>
     </row>
     <row r="4">
@@ -423,16 +423,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.2995915934443474</v>
+        <v>0.2982486436764399</v>
       </c>
       <c r="C4">
-        <v>0.1465496345823331</v>
+        <v>0.1427466390401264</v>
       </c>
       <c r="D4">
-        <v>1.320408406555653</v>
+        <v>1.286418022990227</v>
       </c>
       <c r="E4">
-        <v>-0.009048805229804004</v>
+        <v>-0.009304518967829944</v>
       </c>
     </row>
     <row r="5">
@@ -440,16 +440,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.2608487889170646</v>
+        <v>0.2567048549652099</v>
       </c>
       <c r="C5">
-        <v>0.04309322057280254</v>
+        <v>0.01674119390869433</v>
       </c>
       <c r="D5">
-        <v>1.359151211082935</v>
+        <v>1.327961811701457</v>
       </c>
       <c r="E5">
-        <v>-0.006277862501022294</v>
+        <v>-0.004059966122365088</v>
       </c>
     </row>
     <row r="6">
@@ -457,16 +457,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.118817625939846</v>
+        <v>0.1177107289433479</v>
       </c>
       <c r="C6">
-        <v>0.05626105344814832</v>
+        <v>0.05789315582468504</v>
       </c>
       <c r="D6">
-        <v>1.501182374060154</v>
+        <v>1.466955937723319</v>
       </c>
       <c r="E6">
-        <v>-0.004759441232121883</v>
+        <v>-0.005013763918241113</v>
       </c>
     </row>
     <row r="7">
@@ -474,16 +474,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.158710428327322</v>
+        <v>0.1562627032399178</v>
       </c>
       <c r="C7">
-        <v>0.03168094703222379</v>
+        <v>0.01936855911297186</v>
       </c>
       <c r="D7">
-        <v>1.461289571672678</v>
+        <v>1.428403963426749</v>
       </c>
       <c r="E7">
-        <v>-0.004082978959969508</v>
+        <v>-0.00330386201929997</v>
       </c>
     </row>
     <row r="8">
@@ -491,16 +491,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.2417047098278999</v>
+        <v>0.2416572441657384</v>
       </c>
       <c r="C8">
-        <v>0.008349710478427193</v>
+        <v>0.01732267636784347</v>
       </c>
       <c r="D8">
-        <v>1.3782952901721</v>
+        <v>1.343009422500928</v>
       </c>
       <c r="E8">
-        <v>-0.001924144604550691</v>
+        <v>-0.002898792028261936</v>
       </c>
     </row>
     <row r="9">
@@ -508,16 +508,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.08616190440952778</v>
+        <v>0.08310086590548356</v>
       </c>
       <c r="C9">
-        <v>0.01290367559993058</v>
+        <v>0.009836642282970761</v>
       </c>
       <c r="D9">
-        <v>1.533838095590472</v>
+        <v>1.501565800761183</v>
       </c>
       <c r="E9">
-        <v>-0.002372678033265817</v>
+        <v>-0.002309520603142399</v>
       </c>
     </row>
     <row r="10">
@@ -525,16 +525,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.2483182959258556</v>
+        <v>0.2462240954240163</v>
       </c>
       <c r="C10">
-        <v>0.04193571080650919</v>
+        <v>0.0460727325788979</v>
       </c>
       <c r="D10">
-        <v>1.371681704074144</v>
+        <v>1.33844257124265</v>
       </c>
       <c r="E10">
-        <v>-0.004196755808738304</v>
+        <v>-0.00467759540046087</v>
       </c>
     </row>
     <row r="11">
@@ -542,16 +542,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.4253516688942909</v>
+        <v>0.4239757130543391</v>
       </c>
       <c r="C11">
-        <v>0.07804432671691904</v>
+        <v>0.05928118565138554</v>
       </c>
       <c r="D11">
-        <v>1.194648331105709</v>
+        <v>1.160690953612328</v>
       </c>
       <c r="E11">
-        <v>-0.006110265033900327</v>
+        <v>-0.005415824297829649</v>
       </c>
     </row>
     <row r="12">
@@ -559,16 +559,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.3318420574069023</v>
+        <v>0.3237212806940079</v>
       </c>
       <c r="C12">
-        <v>0.1409172943788823</v>
+        <v>0.05207236963460164</v>
       </c>
       <c r="D12">
-        <v>1.288157942593098</v>
+        <v>1.260945385972659</v>
       </c>
       <c r="E12">
-        <v>-0.01279117512006207</v>
+        <v>-0.008857580068263239</v>
       </c>
     </row>
     <row r="13">
@@ -576,16 +576,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.3380883991718292</v>
+        <v>0.3347901205221812</v>
       </c>
       <c r="C13">
-        <v>0.09228278043424176</v>
+        <v>0.05544937152534025</v>
       </c>
       <c r="D13">
-        <v>1.281911600828171</v>
+        <v>1.249876546144485</v>
       </c>
       <c r="E13">
-        <v>-0.006937604604970973</v>
+        <v>-0.005533678873190099</v>
       </c>
     </row>
     <row r="14">
@@ -593,16 +593,16 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.3622637808322907</v>
+        <v>0.3636040260394414</v>
       </c>
       <c r="C14">
-        <v>0.1134011005400326</v>
+        <v>0.1198031052456544</v>
       </c>
       <c r="D14">
-        <v>1.257736219167709</v>
+        <v>1.221062640627225</v>
       </c>
       <c r="E14">
-        <v>-0.01076007571482075</v>
+        <v>-0.01028254492409452</v>
       </c>
     </row>
     <row r="15">
@@ -610,16 +610,16 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.3867023274302482</v>
+        <v>0.3908715049425761</v>
       </c>
       <c r="C15">
-        <v>0.1442903990862635</v>
+        <v>0.1344174455951829</v>
       </c>
       <c r="D15">
-        <v>1.233297672569752</v>
+        <v>1.193795161724091</v>
       </c>
       <c r="E15">
-        <v>-0.0130904053124015</v>
+        <v>-0.01330199977100254</v>
       </c>
     </row>
     <row r="16">
@@ -627,16 +627,16 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.2892097100615501</v>
+        <v>0.3202980071306228</v>
       </c>
       <c r="C16">
-        <v>0.04862058290343727</v>
+        <v>0.008438074267139882</v>
       </c>
       <c r="D16">
-        <v>1.33079028993845</v>
+        <v>1.264368659536044</v>
       </c>
       <c r="E16">
-        <v>0.01310692243985642</v>
+        <v>0.01045293835995859</v>
       </c>
     </row>
     <row r="17">
@@ -644,16 +644,16 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.3391566261649132</v>
+        <v>0.3369664887587229</v>
       </c>
       <c r="C17">
-        <v>0.0001821440091024527</v>
+        <v>0.0009318893247127778</v>
       </c>
       <c r="D17">
-        <v>1.280843373835087</v>
+        <v>1.247700177907944</v>
       </c>
       <c r="E17">
-        <v>0.000243068569005112</v>
+        <v>0.0005587965590570146</v>
       </c>
     </row>
     <row r="18">
@@ -661,16 +661,16 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.2707934863865376</v>
+        <v>0.270490596195062</v>
       </c>
       <c r="C18">
-        <v>0.05456501817449064</v>
+        <v>0.02667349004667819</v>
       </c>
       <c r="D18">
-        <v>1.349206513613462</v>
+        <v>1.314176070471605</v>
       </c>
       <c r="E18">
-        <v>-0.005507226227773393</v>
+        <v>-0.003735715797647747</v>
       </c>
     </row>
     <row r="19">
@@ -678,16 +678,16 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.6739251583814621</v>
+        <v>0.6775330146153767</v>
       </c>
       <c r="C19">
-        <v>0.4225694544763031</v>
+        <v>0.4428870748325684</v>
       </c>
       <c r="D19">
-        <v>0.9460748416185378</v>
+        <v>0.9071336520512898</v>
       </c>
       <c r="E19">
-        <v>-0.02936215217694805</v>
+        <v>-0.03046327813629436</v>
       </c>
     </row>
     <row r="20">
@@ -695,16 +695,16 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.6043150752782822</v>
+        <v>0.6115200777848562</v>
       </c>
       <c r="C20">
-        <v>0.2126836593655106</v>
+        <v>0.2142403027001356</v>
       </c>
       <c r="D20">
-        <v>1.015684924721718</v>
+        <v>0.9731465888818105</v>
       </c>
       <c r="E20">
-        <v>-0.01831971094542745</v>
+        <v>-0.02077559906825547</v>
       </c>
     </row>
     <row r="21">
@@ -712,16 +712,16 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.6782698929309845</v>
+        <v>0.684326171875</v>
       </c>
       <c r="C21">
-        <v>0.09744095774961126</v>
+        <v>0.1282761196188474</v>
       </c>
       <c r="D21">
-        <v>0.9417301070690155</v>
+        <v>0.9003404947916667</v>
       </c>
       <c r="E21">
-        <v>-0.01340110478959454</v>
+        <v>-0.01632971963459956</v>
       </c>
     </row>
     <row r="22">
@@ -729,16 +729,16 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.4368997231125832</v>
+        <v>0.4362717886765798</v>
       </c>
       <c r="C22">
-        <v>0.1412293592947428</v>
+        <v>0.06959813160956362</v>
       </c>
       <c r="D22">
-        <v>1.183100276887417</v>
+        <v>1.148394877990087</v>
       </c>
       <c r="E22">
-        <v>-0.01524518063733809</v>
+        <v>-0.01078688371011904</v>
       </c>
     </row>
     <row r="23">
@@ -746,16 +746,16 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.6476787924766541</v>
+        <v>0.6506871283054352</v>
       </c>
       <c r="C23">
-        <v>0.04892670883006225</v>
+        <v>0.06785908545327016</v>
       </c>
       <c r="D23">
-        <v>0.9723212075233459</v>
+        <v>0.9339795383612315</v>
       </c>
       <c r="E23">
-        <v>-0.008609147073533507</v>
+        <v>-0.01060829543480071</v>
       </c>
     </row>
     <row r="24">
@@ -763,16 +763,16 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.4168592914938927</v>
+        <v>0.4225405712922414</v>
       </c>
       <c r="C24">
-        <v>0.3186738642274454</v>
+        <v>0.2580357046374365</v>
       </c>
       <c r="D24">
-        <v>1.203140708506107</v>
+        <v>1.162126095374425</v>
       </c>
       <c r="E24">
-        <v>-0.01960441959301405</v>
+        <v>-0.02132805770973566</v>
       </c>
     </row>
     <row r="25">
@@ -780,16 +780,16 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.3256578147411346</v>
+        <v>0.3290704339742661</v>
       </c>
       <c r="C25">
-        <v>0.1021783891190877</v>
+        <v>0.1300075647354024</v>
       </c>
       <c r="D25">
-        <v>1.294342185258865</v>
+        <v>1.255596232692401</v>
       </c>
       <c r="E25">
-        <v>-0.01071670795775283</v>
+        <v>-0.01243654038970862</v>
       </c>
     </row>
     <row r="26">
@@ -797,16 +797,16 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.9365988224744797</v>
+        <v>0.9439468105634053</v>
       </c>
       <c r="C26">
-        <v>0.1470936070773031</v>
+        <v>0.1937764901123108</v>
       </c>
       <c r="D26">
-        <v>0.722197485089302</v>
+        <v>0.6665840611457824</v>
       </c>
       <c r="E26">
-        <v>-0.01746995344520614</v>
+        <v>-0.02183046699230568</v>
       </c>
     </row>
     <row r="27">
@@ -814,16 +814,16 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.3220789566636085</v>
+        <v>0.3239003231128057</v>
       </c>
       <c r="C27">
-        <v>0.1171936556592472</v>
+        <v>0.1315854330183825</v>
       </c>
       <c r="D27">
-        <v>1.297921043336391</v>
+        <v>1.260766343553861</v>
       </c>
       <c r="E27">
-        <v>-0.0112450752494066</v>
+        <v>-0.01193421462903292</v>
       </c>
     </row>
     <row r="28">
@@ -831,16 +831,16 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.2535719878971577</v>
+        <v>0.2526972105105718</v>
       </c>
       <c r="C28">
-        <v>0.0614872567066983</v>
+        <v>0.05987339241490882</v>
       </c>
       <c r="D28">
-        <v>1.366428012102842</v>
+        <v>1.331969456156095</v>
       </c>
       <c r="E28">
-        <v>-0.007168091691724784</v>
+        <v>-0.006930290579941359</v>
       </c>
     </row>
     <row r="29">
@@ -848,16 +848,16 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.0321488537825644</v>
+        <v>0.03245616685599089</v>
       </c>
       <c r="C29">
-        <v>0.06622388865628336</v>
+        <v>0.1008101970170962</v>
       </c>
       <c r="D29">
-        <v>1.587851146217436</v>
+        <v>1.552210499810676</v>
       </c>
       <c r="E29">
-        <v>-0.004814238008345245</v>
+        <v>-0.006315638936169161</v>
       </c>
     </row>
     <row r="30">
@@ -865,16 +865,16 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.3943919107317925</v>
+        <v>0.409217028816541</v>
       </c>
       <c r="C30">
-        <v>0.001163419557322686</v>
+        <v>0.01705791397038079</v>
       </c>
       <c r="D30">
-        <v>1.225608089268208</v>
+        <v>1.175449637850126</v>
       </c>
       <c r="E30">
-        <v>-0.001057285070071001</v>
+        <v>-0.006623608478563353</v>
       </c>
     </row>
     <row r="31">
@@ -882,16 +882,16 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1.043134677410126</v>
+        <v>1.048414544264475</v>
       </c>
       <c r="C31">
-        <v>0.2188773757433034</v>
+        <v>0.1914400144535453</v>
       </c>
       <c r="D31">
-        <v>0.6597336106300353</v>
+        <v>0.592767879962921</v>
       </c>
       <c r="E31">
-        <v>-0.01570498065248131</v>
+        <v>-0.01538324754086463</v>
       </c>
     </row>
     <row r="32">
@@ -899,16 +899,16 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.7433152765035629</v>
+        <v>0.7493983983993531</v>
       </c>
       <c r="C32">
-        <v>3.964416302499654e-05</v>
+        <v>0.009420059558774549</v>
       </c>
       <c r="D32">
-        <v>0.8790465306043624</v>
+        <v>0.8368428063392639</v>
       </c>
       <c r="E32">
-        <v>-0.0001638323940989723</v>
+        <v>-0.002939531217686357</v>
       </c>
     </row>
     <row r="33">
@@ -916,16 +916,16 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1.133235824108124</v>
+        <v>1.136516733964284</v>
       </c>
       <c r="C33">
-        <v>0.2127203514334637</v>
+        <v>0.2046910060792213</v>
       </c>
       <c r="D33">
-        <v>0.6265747046470642</v>
+        <v>0.5536072974205016</v>
       </c>
       <c r="E33">
-        <v>-0.0121819746950858</v>
+        <v>-0.0123673508241605</v>
       </c>
     </row>
     <row r="34">
@@ -933,16 +933,16 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.707472488284111</v>
+        <v>0.7194132626056671</v>
       </c>
       <c r="C34">
-        <v>0.7161469064866971</v>
+        <v>0.6285978248043403</v>
       </c>
       <c r="D34">
-        <v>0.9140012513399124</v>
+        <v>0.8662358971436818</v>
       </c>
       <c r="E34">
-        <v>-0.05194573002778258</v>
+        <v>-0.05511888802347883</v>
       </c>
     </row>
     <row r="35">
@@ -950,16 +950,16 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.4958171367645264</v>
+        <v>0.5024663060903549</v>
       </c>
       <c r="C35">
-        <v>0.242285584842528</v>
+        <v>0.298991957566547</v>
       </c>
       <c r="D35">
-        <v>1.124182863235474</v>
+        <v>1.082200360576312</v>
       </c>
       <c r="E35">
-        <v>-0.01715696968292287</v>
+        <v>-0.0238505990805101</v>
       </c>
     </row>
     <row r="36">
@@ -967,16 +967,16 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1.076993584632874</v>
+        <v>1.066730326414108</v>
       </c>
       <c r="C36">
-        <v>0.7461322742818436</v>
+        <v>0.6874394990966857</v>
       </c>
       <c r="D36">
-        <v>0.7094211282730102</v>
+        <v>0.6440890314579009</v>
       </c>
       <c r="E36">
-        <v>-0.1803737254615488</v>
+        <v>-0.1758062175903895</v>
       </c>
     </row>
     <row r="37">
@@ -984,16 +984,16 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.7464342325925827</v>
+        <v>0.7487069229284923</v>
       </c>
       <c r="C37">
-        <v>0.3223430755179633</v>
+        <v>0.3213818104905158</v>
       </c>
       <c r="D37">
-        <v>0.8789134155511856</v>
+        <v>0.8395248425006866</v>
       </c>
       <c r="E37">
-        <v>-0.02185692528535181</v>
+        <v>-0.02232389743115606</v>
       </c>
     </row>
     <row r="38">
@@ -1001,16 +1001,16 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.6851902872323989</v>
+        <v>0.6778026262919108</v>
       </c>
       <c r="C38">
-        <v>0.6992909158439218</v>
+        <v>0.6550774228488438</v>
       </c>
       <c r="D38">
-        <v>0.9429494451284408</v>
+        <v>0.9122905286153157</v>
       </c>
       <c r="E38">
-        <v>-0.1218564793103181</v>
+        <v>-0.1172330167715312</v>
       </c>
     </row>
     <row r="39">
@@ -1018,16 +1018,16 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.8532722920179368</v>
+        <v>0.8572649459044138</v>
       </c>
       <c r="C39">
-        <v>0.5119570745972941</v>
+        <v>0.48988163567364</v>
       </c>
       <c r="D39">
-        <v>0.7848867698907852</v>
+        <v>0.7395077620347341</v>
       </c>
       <c r="E39">
-        <v>-0.03847908596648396</v>
+        <v>-0.03692826466515679</v>
       </c>
     </row>
     <row r="40">
@@ -1035,16 +1035,16 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.6260049730539322</v>
+        <v>0.6255862593650818</v>
       </c>
       <c r="C40">
-        <v>0.1604784565745941</v>
+        <v>0.1615008065660533</v>
       </c>
       <c r="D40">
-        <v>0.9939950269460678</v>
+        <v>0.9590804073015848</v>
       </c>
       <c r="E40">
-        <v>-0.01434304801312263</v>
+        <v>-0.01356672238903196</v>
       </c>
     </row>
     <row r="41">
@@ -1052,16 +1052,16 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.880397441983223</v>
+        <v>0.8861594378948212</v>
       </c>
       <c r="C41">
-        <v>0.456586308416366</v>
+        <v>0.4635038478732972</v>
       </c>
       <c r="D41">
-        <v>0.767343354344368</v>
+        <v>0.7170010929902394</v>
       </c>
       <c r="E41">
-        <v>-0.04181359068450599</v>
+        <v>-0.04165337258090734</v>
       </c>
     </row>
     <row r="42">
@@ -1069,16 +1069,16 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.8720692247152328</v>
+        <v>0.8767740269502003</v>
       </c>
       <c r="C42">
-        <v>0.5438955679426004</v>
+        <v>0.5470062005518411</v>
       </c>
       <c r="D42">
-        <v>0.7728062137365341</v>
+        <v>0.7244762653509775</v>
       </c>
       <c r="E42">
-        <v>-0.04075560575504776</v>
+        <v>-0.03990428522342253</v>
       </c>
     </row>
     <row r="43">
@@ -1086,16 +1086,16 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.8367452204227448</v>
+        <v>0.8492940982182821</v>
       </c>
       <c r="C43">
-        <v>0.7737552254093424</v>
+        <v>0.7404731313412901</v>
       </c>
       <c r="D43">
-        <v>0.8150485963821411</v>
+        <v>0.7565684463183084</v>
       </c>
       <c r="E43">
-        <v>-0.1148215595923535</v>
+        <v>-0.1228555902594197</v>
       </c>
     </row>
     <row r="44">
@@ -1103,16 +1103,16 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1.039977461099625</v>
+        <v>1.050191191832224</v>
       </c>
       <c r="C44">
-        <v>0.6915175183056498</v>
+        <v>0.6752841709714122</v>
       </c>
       <c r="D44">
-        <v>0.7318091905117035</v>
+        <v>0.6514881695111593</v>
       </c>
       <c r="E44">
-        <v>-0.1885426791709682</v>
+        <v>-0.1836044745534839</v>
       </c>
     </row>
     <row r="45">
@@ -1120,16 +1120,16 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.8458613216876983</v>
+        <v>0.8497545103232066</v>
       </c>
       <c r="C45">
-        <v>0.8366605498747481</v>
+        <v>0.7717528540514079</v>
       </c>
       <c r="D45">
-        <v>0.8436492693424225</v>
+        <v>0.7856138594150542</v>
       </c>
       <c r="E45">
-        <v>-0.2183600421908958</v>
+        <v>-0.2250133101650583</v>
       </c>
     </row>
     <row r="46">
@@ -1137,16 +1137,16 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.8817157834768294</v>
+        <v>0.8975720067818959</v>
       </c>
       <c r="C46">
-        <v>0.8050146889043174</v>
+        <v>0.8048541833016037</v>
       </c>
       <c r="D46">
-        <v>0.7986174923181534</v>
+        <v>0.7273168437480926</v>
       </c>
       <c r="E46">
-        <v>-0.1609013438141061</v>
+        <v>-0.1677806616438027</v>
       </c>
     </row>
     <row r="47">
@@ -1154,16 +1154,16 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0.7621424227952958</v>
+        <v>0.7657636364301046</v>
       </c>
       <c r="C47">
-        <v>0.4603271147666729</v>
+        <v>0.472343602325868</v>
       </c>
       <c r="D47">
-        <v>0.8642334591150284</v>
+        <v>0.8231536181767781</v>
       </c>
       <c r="E47">
-        <v>-0.02987324874157973</v>
+        <v>-0.03243466305455704</v>
       </c>
     </row>
     <row r="48">
@@ -1171,16 +1171,16 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.6671359419822693</v>
+        <v>0.6629883309205373</v>
       </c>
       <c r="C48">
-        <v>0.6252039603691746</v>
+        <v>0.481187934398414</v>
       </c>
       <c r="D48">
-        <v>0.9561728041172027</v>
+        <v>0.9238841664791106</v>
       </c>
       <c r="E48">
-        <v>-0.09307930431104111</v>
+        <v>-0.08038554315274374</v>
       </c>
     </row>
     <row r="49">
@@ -1188,16 +1188,16 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1.153678092360497</v>
+        <v>1.167380617062251</v>
       </c>
       <c r="C49">
-        <v>0.8364835462495619</v>
+        <v>0.7838514790841493</v>
       </c>
       <c r="D49">
-        <v>0.7120698543787002</v>
+        <v>0.6251459357738495</v>
       </c>
       <c r="E49">
-        <v>-0.2019726588242283</v>
+        <v>-0.2020936370511313</v>
       </c>
     </row>
     <row r="50">
@@ -1205,16 +1205,16 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1.121065178513527</v>
+        <v>1.139865384499232</v>
       </c>
       <c r="C50">
-        <v>0.9385577567128776</v>
+        <v>0.882186284552072</v>
       </c>
       <c r="D50">
-        <v>0.7113870891332627</v>
+        <v>0.6312452194690704</v>
       </c>
       <c r="E50">
-        <v>-0.17904270657181</v>
+        <v>-0.186825598888588</v>
       </c>
     </row>
     <row r="51">
@@ -1222,16 +1222,16 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1.400967985391617</v>
+        <v>1.398244214057922</v>
       </c>
       <c r="C51">
-        <v>0.8077607057563647</v>
+        <v>0.7889182142653697</v>
       </c>
       <c r="D51">
-        <v>0.7587553899288177</v>
+        <v>0.6768653237024943</v>
       </c>
       <c r="E51">
-        <v>-0.3643489457900488</v>
+        <v>-0.3678584106262309</v>
       </c>
     </row>
     <row r="52">
@@ -1239,16 +1239,16 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.6946853339672089</v>
+        <v>0.697079873085022</v>
       </c>
       <c r="C52">
-        <v>0.03733946254939302</v>
+        <v>0.05240106187316979</v>
       </c>
       <c r="D52">
-        <v>0.9253146660327911</v>
+        <v>0.8875867935816447</v>
       </c>
       <c r="E52">
-        <v>-0.01110925166161113</v>
+        <v>-0.01246498387572858</v>
       </c>
     </row>
     <row r="53">
@@ -1256,16 +1256,16 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1.11946074962616</v>
+        <v>1.124858315785726</v>
       </c>
       <c r="C53">
-        <v>0.6762463637953106</v>
+        <v>0.6376010468826369</v>
       </c>
       <c r="D53">
-        <v>0.6805743994712828</v>
+        <v>0.6067034381230672</v>
       </c>
       <c r="E53">
-        <v>-0.1135979159245466</v>
+        <v>-0.1223927955678148</v>
       </c>
     </row>
     <row r="54">
@@ -1273,16 +1273,16 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.8298488020896911</v>
+        <v>0.8334746201833089</v>
       </c>
       <c r="C54">
-        <v>0.06190553235080508</v>
+        <v>0.1001631805166609</v>
       </c>
       <c r="D54">
-        <v>0.8019607021808625</v>
+        <v>0.7590650493303934</v>
       </c>
       <c r="E54">
-        <v>-0.006924685683748641</v>
+        <v>-0.009493954486462163</v>
       </c>
     </row>
     <row r="55">
@@ -1290,16 +1290,16 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>1.236579132080078</v>
+        <v>1.206003789107005</v>
       </c>
       <c r="C55">
-        <v>0.6431274382869947</v>
+        <v>0.5665075150043765</v>
       </c>
       <c r="D55">
-        <v>0.6962156953811646</v>
+        <v>0.6242795008023579</v>
       </c>
       <c r="E55">
-        <v>-0.2061936472387607</v>
+        <v>-0.2028346390296633</v>
       </c>
     </row>
     <row r="56">
@@ -1307,16 +1307,16 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>1.589078390598297</v>
+        <v>1.605998082955678</v>
       </c>
       <c r="C56">
-        <v>0.7766499084620737</v>
+        <v>0.8032743577829504</v>
       </c>
       <c r="D56">
-        <v>0.6554824318885804</v>
+        <v>0.5769675234158834</v>
       </c>
       <c r="E56">
-        <v>-0.2263477361241478</v>
+        <v>-0.2311575665626567</v>
       </c>
     </row>
     <row r="57">
@@ -1324,16 +1324,16 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.8149561703205108</v>
+        <v>0.8067047576109568</v>
       </c>
       <c r="C57">
-        <v>0.1688656014845653</v>
+        <v>0.08397047318850087</v>
       </c>
       <c r="D57">
-        <v>0.8182876389026642</v>
+        <v>0.7867911152044932</v>
       </c>
       <c r="E57">
-        <v>-0.02351399584509372</v>
+        <v>-0.01821976202428416</v>
       </c>
     </row>
     <row r="58">
@@ -1341,16 +1341,16 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>2.565540027618408</v>
+        <v>2.602393730481466</v>
       </c>
       <c r="C58">
-        <v>0.623592482563193</v>
+        <v>0.6485753075789804</v>
       </c>
       <c r="D58">
-        <v>1.095781771659851</v>
+        <v>1.117888226509094</v>
       </c>
       <c r="E58">
-        <v>-0.4582802670973319</v>
+        <v>-0.4615990428871598</v>
       </c>
     </row>
     <row r="59">
@@ -1358,16 +1358,16 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>3.130016565322876</v>
+        <v>3.126204029719035</v>
       </c>
       <c r="C59">
-        <v>0.2995315713117968</v>
+        <v>0.2394402210620654</v>
       </c>
       <c r="D59">
-        <v>1.510016565322876</v>
+        <v>1.541537363052368</v>
       </c>
       <c r="E59">
-        <v>-0.09924353335829639</v>
+        <v>-0.09517251327216412</v>
       </c>
     </row>
     <row r="60">
@@ -1375,16 +1375,16 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>2.161071026325226</v>
+        <v>2.165235169728597</v>
       </c>
       <c r="C60">
-        <v>0.5362326521284517</v>
+        <v>0.4857778746306384</v>
       </c>
       <c r="D60">
-        <v>0.7586710209846497</v>
+        <v>0.7311934350331625</v>
       </c>
       <c r="E60">
-        <v>-0.1990267999360072</v>
+        <v>-0.1844275039956026</v>
       </c>
     </row>
     <row r="61">
@@ -1392,16 +1392,16 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.9948663085699082</v>
+        <v>0.996894774834315</v>
       </c>
       <c r="C61">
-        <v>0.4450558466382044</v>
+        <v>0.4644299822445576</v>
       </c>
       <c r="D61">
-        <v>0.6814965945482253</v>
+        <v>0.625347160577774</v>
       </c>
       <c r="E61">
-        <v>-0.02521472090811197</v>
+        <v>-0.02573957113523791</v>
       </c>
     </row>
     <row r="62">
@@ -1409,16 +1409,16 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1.03252962231636</v>
+        <v>1.030063897371292</v>
       </c>
       <c r="C62">
-        <v>0.8264993720495744</v>
+        <v>0.7570235857065926</v>
       </c>
       <c r="D62">
-        <v>0.7501301171779633</v>
+        <v>0.6726584794521332</v>
       </c>
       <c r="E62">
-        <v>-0.2346436932197473</v>
+        <v>-0.2206371931025809</v>
       </c>
     </row>
     <row r="63">
@@ -1426,16 +1426,16 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.9340813308954239</v>
+        <v>0.9513428032398223</v>
       </c>
       <c r="C63">
-        <v>0.9026856931068157</v>
+        <v>0.8076195343473043</v>
       </c>
       <c r="D63">
-        <v>0.7923879927396774</v>
+        <v>0.7106699769496917</v>
       </c>
       <c r="E63">
-        <v>-0.2299719135711653</v>
+        <v>-0.2191414871017664</v>
       </c>
     </row>
     <row r="64">
@@ -1443,16 +1443,16 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>1.03180747628212</v>
+        <v>1.046973516543706</v>
       </c>
       <c r="C64">
-        <v>0.7760133242544175</v>
+        <v>0.737339984942739</v>
       </c>
       <c r="D64">
-        <v>0.7125747716426849</v>
+        <v>0.6345387960275014</v>
       </c>
       <c r="E64">
-        <v>-0.1154405012415266</v>
+        <v>-0.1188870609017975</v>
       </c>
     </row>
     <row r="65">
@@ -1460,16 +1460,16 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.4069106131792068</v>
+        <v>0.4047761738300323</v>
       </c>
       <c r="C65">
-        <v>0.003331860146083374</v>
+        <v>0.0002918754784177815</v>
       </c>
       <c r="D65">
-        <v>1.213089386820793</v>
+        <v>1.179890492836634</v>
       </c>
       <c r="E65">
-        <v>0.001302554519372595</v>
+        <v>-0.0004038265199578887</v>
       </c>
     </row>
   </sheetData>
